--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2483.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2483.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274984432369699</v>
+        <v>1.672209024429321</v>
       </c>
       <c r="B1">
-        <v>3.425381211648333</v>
+        <v>1.594421029090881</v>
       </c>
       <c r="C1">
-        <v>4.440514425998296</v>
+        <v>4.751124382019043</v>
       </c>
       <c r="D1">
-        <v>3.545741819145201</v>
+        <v>1.208233952522278</v>
       </c>
       <c r="E1">
-        <v>1.651029195225951</v>
+        <v>0.6363009214401245</v>
       </c>
     </row>
   </sheetData>
